--- a/backend/output_timetables/sem7_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_post_mid_timetable.xlsx
@@ -9,6 +9,11 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Distribution_Logic" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="All_Courses_Overview" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -769,7 +774,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -816,7 +821,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -894,6 +899,4626 @@
       <c r="I4" t="inlineStr">
         <is>
           <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 0, Elective: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/2 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8.6%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 17.1%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 26.6/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Reinforcement learning</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CS367</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Image processing and computer vision</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Girish G N</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hands on CMOS analog and RF circuit design</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Usability testing</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Aswath Babu</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Sunil Saumya</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Information retrieval</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Krishnendu</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cloud SRE and security</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Malay Kumar</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Software defined network</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Finance and accounting</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Anushree</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Operation research</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Energy efficient neural networks</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Jagadish D N</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled In</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Logic Applied</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>In Pre-Mid</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>In Post-Mid</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Reinforcement learning</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS367</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Image processing and computer vision</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hands on CMOS analog and RF circuit design</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Usability testing</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Information retrieval</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cloud SRE and security</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Software defined network</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Finance and accounting</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Operation research</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Energy efficient neural networks</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>7</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Reinforcement learning</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Dibyajyothi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS367</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Image processing and computer vision</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Girish G N</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hands on CMOS analog and RF circuit design</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Usability testing</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Aswath Babu</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Sunil Saumya</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Information retrieval</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Krishnendu</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cloud SRE and security</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Malay Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Software defined network</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Finance and accounting</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Anushree</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Operation research</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Energy efficient neural networks</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Jagadish D N</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Reinforcement learning</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>7</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Dibyajyothi</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CS367</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Image processing and computer vision</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>7</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Girish G N</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hands on CMOS analog and RF circuit design</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>7</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Usability testing</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Quantum AI + Quantum Gen AI: Generative models on quantum platform</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>7</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Aswath Babu</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DevOPS and its application</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>7</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Sunil Saumya</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Information retrieval</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>7</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Krishnendu</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Cloud SRE and security</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>7</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Malay Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Software defined network</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>7</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AI for cybersecurity</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>7</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Finance and accounting</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>7</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Anushree</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Operation research</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>7</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Energy efficient neural networks</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>7</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Jagadish D N</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>EC498</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>7</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_post_mid_timetable.xlsx
@@ -3437,7 +3437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4830,2652 +4830,6 @@
         </is>
       </c>
       <c r="M22" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>7</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>7</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>7</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>7</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>7</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>7</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>7</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>7</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>7</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>7</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>7</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>7</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>7</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>7</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>7</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>7</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>7</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>7</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>7</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>7</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>7</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>7</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>7</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>7</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>7</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>7</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>7</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>7</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>7</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>7</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>7</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>7</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>7</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>7</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>7</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>7</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>7</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>7</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
         <is>
           <t>CS473</t>
         </is>

--- a/backend/output_timetables/sem7_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_post_mid_timetable.xlsx
@@ -9,15 +9,15 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Classroom_Allocation" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="LTPSC_Compliance" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Executive_Summary" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Course_Summary" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Distribution_Logic" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="All_Courses_Overview" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Basket_Allocation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Basket_Courses" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Classroom_Utilization" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Distribution_Logic" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="All_Courses_Overview" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Allocation" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Basket_Courses" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Classroom_Utilization" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Classroom_Allocation" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Section_A" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Basket_Course_Allocations" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,17 +480,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -505,24 +505,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -544,118 +544,118 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -672,30 +672,94 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -707,622 +771,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Lecture Slots</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Tutorial Slot</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Courses in Basket</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Common for Both Sections</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Mon 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Mon 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Mon 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Mon 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Mon 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2583,13 +2031,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2600,6 +2048,4597 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>Time Slot</t>
         </is>
       </c>
@@ -2632,17 +6671,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2657,24 +6696,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2696,118 +6735,118 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2824,30 +6863,94 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -2902,7 +7005,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -2919,7 +7022,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2936,7 +7039,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2953,7 +7056,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C003</t>
         </is>
       </c>
     </row>
@@ -2970,7 +7073,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C003</t>
         </is>
       </c>
     </row>
@@ -2987,7 +7090,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C101</t>
         </is>
       </c>
     </row>
@@ -3004,7 +7107,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
@@ -3019,7 +7122,11 @@
           <t>EC462</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C001, C002, C004</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3032,7 +7139,11 @@
           <t>EC465</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C001, C003, C101</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3042,10 +7153,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C002, C101, C102</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3058,7 +7173,11 @@
           <t>PH454</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C001, C004, C102</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3068,10 +7187,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C002, C003, C004, C101</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3084,7 +7207,11 @@
           <t>CS470</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C003, C004, C101, L406</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3097,7 +7224,11 @@
           <t>DS102</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C001, C002, C004, L407</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3110,7 +7241,11 @@
           <t>MA452</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C001, C002, C003, C004</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3123,7 +7258,11 @@
           <t>EC463</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C002, C003, C004</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3437,1415 +7576,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Semester</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Branch</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Section</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Room Type</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Conflict</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Allocation Type</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Basket</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>course</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>7</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>7</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>7</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>7</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>7</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>7</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>7</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>7</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>7</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5144,7 +7874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5213,7 +7943,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 12:24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5277,7 +8007,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0/36</t>
+          <t>0/16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5299,12 +8029,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>11.1%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 28.6%, B: 0.0%</t>
+          <t>A: 22.2%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -5326,7 +8056,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 28.3/100</t>
+          <t>Score: 27.3/100</t>
         </is>
       </c>
     </row>
@@ -5335,7 +8065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6588,7 +9318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7427,7 +10157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9034,7 +11764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9208,11 +11938,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC462, EC465, ASD352, PH454, DE451</t>
+          <t>EC462, EC465, DE451, PH454</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -9272,6 +12002,587 @@
       <c r="I5" t="inlineStr">
         <is>
           <t>Semester 7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_post_mid_timetable.xlsx
@@ -2148,7 +2148,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -2219,11 +2219,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="b">
         <v>0</v>
       </c>
@@ -2239,7 +2235,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -2279,15 +2275,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -2343,17 +2343,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -2411,17 +2411,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -2555,7 +2555,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
@@ -2571,7 +2575,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -2611,19 +2615,15 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="b">
         <v>0</v>
       </c>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2679,12 +2679,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2820,10 +2820,14 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I12" t="b">
         <v>0</v>
       </c>
@@ -2839,7 +2843,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2879,12 +2883,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2907,7 +2911,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2952,7 +2956,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2975,7 +2979,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -3023,11 +3027,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="b">
         <v>0</v>
       </c>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -3083,15 +3083,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
@@ -3107,7 +3111,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3147,17 +3151,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -3175,7 +3179,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -3215,17 +3219,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -3243,7 +3247,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -3288,10 +3292,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
@@ -3307,7 +3315,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -3352,7 +3360,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3375,7 +3383,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -3756,7 +3764,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3779,7 +3787,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -3827,11 +3835,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="b">
         <v>0</v>
       </c>
@@ -3847,7 +3851,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -3887,15 +3891,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I28" t="b">
         <v>0</v>
       </c>
@@ -3911,7 +3919,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -4015,12 +4023,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4043,7 +4051,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -4083,17 +4091,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -4111,7 +4119,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -4151,17 +4159,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -4179,7 +4187,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -4227,11 +4235,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -4247,7 +4251,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -4287,15 +4291,19 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I34" t="b">
         <v>0</v>
       </c>
@@ -4311,7 +4319,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -4351,17 +4359,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -4379,7 +4387,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -4419,17 +4427,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -4447,7 +4455,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -4851,7 +4859,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -4891,19 +4899,15 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="b">
         <v>0</v>
       </c>
@@ -4919,7 +4923,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -4959,17 +4963,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -4987,7 +4991,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -5027,17 +5031,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -5055,7 +5059,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -5095,17 +5099,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -5123,7 +5127,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -5168,10 +5172,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I47" t="b">
         <v>0</v>
       </c>
@@ -5187,7 +5195,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -5295,19 +5303,15 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -5323,7 +5327,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -5363,15 +5367,19 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I50" t="b">
         <v>0</v>
       </c>
@@ -5387,7 +5395,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -5427,17 +5435,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -5455,7 +5463,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -5495,12 +5503,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -5523,7 +5531,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -5563,17 +5571,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -5591,7 +5599,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -5636,14 +5644,10 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="b">
         <v>0</v>
       </c>
@@ -5659,7 +5663,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -5707,11 +5711,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="b">
         <v>0</v>
       </c>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -5767,15 +5767,19 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I56" t="b">
         <v>0</v>
       </c>
@@ -5791,7 +5795,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -5859,7 +5863,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -5899,17 +5903,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I58" t="b">
@@ -5927,7 +5931,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -5967,17 +5971,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I59" t="b">
@@ -5995,7 +5999,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -6035,19 +6039,15 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="b">
         <v>0</v>
       </c>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -6103,12 +6103,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -6171,12 +6171,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -6239,15 +6239,19 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I63" t="b">
         <v>0</v>
       </c>
@@ -6263,7 +6267,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -6303,12 +6307,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -6331,7 +6335,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -6371,17 +6375,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I65" t="b">
@@ -6399,7 +6403,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -6439,17 +6443,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I66" t="b">
@@ -6467,7 +6471,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -6512,14 +6516,10 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="b">
         <v>0</v>
       </c>
@@ -6535,7 +6535,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -6575,12 +6575,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C002, C003</t>
+          <t>C001, C101</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C002, C003</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C001, C101</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C002, C004</t>
+          <t>C001, C004, C102, L408</t>
         </is>
       </c>
     </row>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C001, C003, C101</t>
+          <t>C003, C004, C101</t>
         </is>
       </c>
     </row>
@@ -7158,7 +7158,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C002, C101, C102</t>
+          <t>C001, C003, C101, C102</t>
         </is>
       </c>
     </row>
@@ -7175,7 +7175,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C001, C004, C102</t>
+          <t>C001, C002, C004</t>
         </is>
       </c>
     </row>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C002, C003, C004, C101</t>
+          <t>C001, C002, C003</t>
         </is>
       </c>
     </row>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C003, C004, C101, L406</t>
+          <t>C004, L404</t>
         </is>
       </c>
     </row>
@@ -7226,7 +7226,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001, C002, C004, L407</t>
+          <t>C001, C002, C003, C004</t>
         </is>
       </c>
     </row>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001, C002, C003, C004</t>
+          <t>C001, C002, C003, L405</t>
         </is>
       </c>
     </row>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C002, C003, C004</t>
+          <t>C001, C002, C101, L407</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_post_mid_timetable.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -549,27 +549,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -645,27 +645,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -682,17 +682,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2073,47 +2073,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Room Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Conflict</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allocation Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Basket</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
         </is>
       </c>
     </row>
@@ -2143,46 +2153,54 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>DS456</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2211,42 +2229,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>C001</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>EC456</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2275,46 +2301,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>DS401</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2343,46 +2377,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>EC462</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2411,46 +2449,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>EC465</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2479,46 +2525,54 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2547,46 +2601,54 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>PH454</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2615,42 +2677,54 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>DE451</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2679,46 +2753,54 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>CS457</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2747,46 +2829,50 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>DS458</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2815,46 +2901,54 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>CS468</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2883,46 +2977,54 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>CS473</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2951,46 +3053,54 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M14" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>DS456</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3019,42 +3129,50 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>C001</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>EC456</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3083,46 +3201,54 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M16" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>DS401</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3151,46 +3277,54 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>CS470</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3219,46 +3353,54 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>DS102</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3287,46 +3429,54 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>MA452</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3355,46 +3505,54 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>EC463</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3423,46 +3581,50 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>EC462</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3491,46 +3653,54 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>EC465</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3559,46 +3729,54 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3627,42 +3805,54 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M24" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>PH454</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3691,46 +3881,54 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>DE451</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3759,46 +3957,54 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>DS456</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3827,42 +4033,50 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>C001</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>EC456</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3891,46 +4105,54 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>DS401</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3959,42 +4181,54 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>CS457</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4023,46 +4257,50 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>DS458</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4091,46 +4329,54 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>CS468</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4159,46 +4405,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>CS473</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -4227,42 +4481,54 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>CS457</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4291,46 +4557,50 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>DS458</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4359,46 +4629,54 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>CS468</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4427,46 +4705,54 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>CS473</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4495,46 +4781,54 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>EC462</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4563,46 +4857,54 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
           <t>EC465</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4631,46 +4933,54 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4699,42 +5009,54 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>PH454</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4763,46 +5085,54 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>DE451</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4831,46 +5161,54 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>CS470</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4899,42 +5237,54 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>DS102</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4963,46 +5313,54 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
           <t>MA452</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -5031,46 +5389,54 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>EC463</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5099,46 +5465,54 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>CS470</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -5167,46 +5541,54 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>DS102</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -5235,46 +5617,54 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M48" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>MA452</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -5303,1318 +5693,54 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M49" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>EC463</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>7</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>7</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>7</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>7</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>7</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>7</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>7</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>7</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>7</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>7</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>7</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>7</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>7</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>7</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>7</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>7</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>7</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>7</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>7</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
+      <c r="P49" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6728,7 +5854,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -6740,27 +5866,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
@@ -6824,7 +5950,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -6836,27 +5962,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -6873,17 +5999,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -7005,7 +6131,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -7039,7 +6165,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -7056,7 +6182,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C101</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -7073,7 +6199,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -7090,7 +6216,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -7107,7 +6233,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -7124,7 +6250,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C004, C102, L408</t>
+          <t>C001, C102</t>
         </is>
       </c>
     </row>
@@ -7141,7 +6267,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C003, C004, C101</t>
+          <t>C002, C104</t>
         </is>
       </c>
     </row>
@@ -7153,12 +6279,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C001, C003, C101, C102</t>
+          <t>C102, C202</t>
         </is>
       </c>
     </row>
@@ -7175,7 +6301,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C001, C002, C004</t>
+          <t>C104, C203</t>
         </is>
       </c>
     </row>
@@ -7187,12 +6313,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C001, C002, C003</t>
+          <t>C203, C204</t>
         </is>
       </c>
     </row>
@@ -7209,7 +6335,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004, L404</t>
+          <t>C002, C102</t>
         </is>
       </c>
     </row>
@@ -7226,7 +6352,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001, C002, C003, C004</t>
+          <t>C101, C104</t>
         </is>
       </c>
     </row>
@@ -7243,7 +6369,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001, C002, C003, L405</t>
+          <t>C102, C202</t>
         </is>
       </c>
     </row>
@@ -7260,7 +6386,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C002, C101, L407</t>
+          <t>C104, C203</t>
         </is>
       </c>
     </row>
@@ -7541,7 +6667,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lectures: 7</t>
+          <t>Lectures: 8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -7835,7 +6961,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1/0/0</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -7943,7 +7069,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-19 12:24</t>
+          <t>2026-01-26 01:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8007,7 +7133,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0/16</t>
+          <t>0/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -8029,12 +7155,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11.1%</t>
+          <t>13.3%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 22.2%, B: 0.0%</t>
+          <t>A: 26.7%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -8056,7 +7182,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 27.3/100</t>
+          <t>Score: 28.0/100</t>
         </is>
       </c>
     </row>
@@ -11923,26 +11049,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC462, EC465, DE451, PH454</t>
+          <t>EC462, EC465, ASD352, PH454, DE451</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -11968,17 +11094,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Fri</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tue</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -12016,7 +11142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12319,16 +11445,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mon 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -12354,16 +11480,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mon 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -12384,21 +11510,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mon 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -12424,16 +11550,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mon 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -12449,26 +11575,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -12489,17 +11615,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+          <t>Tue 15:30-17:00, Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12524,17 +11650,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+          <t>Tue 15:30-17:00, Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -12559,17 +11685,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+          <t>Tue 15:30-17:00, Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -12581,6 +11707,41 @@
         </is>
       </c>
       <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Tue 15:30-17:00, Thu 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/backend/output_timetables/sem7_ECE_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_ECE_post_mid_timetable.xlsx
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101, C202</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -3722,17 +3722,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -3798,15 +3798,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
@@ -3822,7 +3826,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -3870,12 +3874,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -3898,7 +3902,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -3946,17 +3950,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -3974,7 +3978,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -4022,12 +4026,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -4050,7 +4054,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4108,7 +4112,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -4126,7 +4130,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -4260,7 +4264,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -4278,7 +4282,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -4326,17 +4330,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -4354,7 +4358,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -4402,15 +4406,19 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
@@ -4426,7 +4434,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4474,12 +4482,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4502,7 +4510,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4578,7 +4586,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4626,17 +4634,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -4654,7 +4662,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -4702,15 +4710,19 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
@@ -4726,7 +4738,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4774,12 +4786,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4802,7 +4814,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -4850,17 +4862,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -4878,7 +4890,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -4926,15 +4938,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -4950,7 +4966,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4998,12 +5014,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -5026,7 +5042,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5102,7 +5118,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5150,17 +5166,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -5178,7 +5194,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5226,12 +5242,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5254,7 +5270,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5312,7 +5328,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -5330,7 +5346,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5464,7 +5480,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -5482,7 +5498,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5530,17 +5546,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -5558,7 +5574,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5606,15 +5622,19 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
@@ -5630,7 +5650,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5678,12 +5698,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -5706,7 +5726,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5754,17 +5774,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -5782,7 +5802,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5830,15 +5850,19 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
@@ -5854,7 +5878,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5902,12 +5926,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -5930,7 +5954,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6006,7 +6030,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6054,17 +6078,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -6082,7 +6106,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6130,15 +6154,19 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
@@ -6154,7 +6182,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6202,12 +6230,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -6230,7 +6258,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6306,7 +6334,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6354,17 +6382,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6382,7 +6410,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6430,12 +6458,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -6458,7 +6486,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6516,7 +6544,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -6534,7 +6562,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6668,7 +6696,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6686,7 +6714,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6734,17 +6762,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -6762,7 +6790,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6810,15 +6838,19 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -6834,7 +6866,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -6882,12 +6914,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -6910,7 +6942,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -6986,7 +7018,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7034,17 +7066,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -7062,7 +7094,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7110,15 +7142,19 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
@@ -7134,7 +7170,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7182,12 +7218,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -7210,7 +7246,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7286,7 +7322,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7681,7 +7717,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
